--- a/results/aggr_cert_test_results.xlsx
+++ b/results/aggr_cert_test_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,12 +486,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación Universitaria
-Precio: 150000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Eléctrica', 'Ingeniería Electrónica']
+          <t>Nombre: Certificado de Servicio Comunitario Universitario - 1681714464
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial']
 Gratuito: False</t>
         </is>
       </c>
@@ -502,7 +502,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'] no coinciden</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -527,12 +527,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación Universitaria
-Precio: 150000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Eléctrica', 'Ingeniería Electrónica']
+          <t>Nombre: Certificado de Servicio Comunitario Universitario - 1681714464
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial']
 Gratuito: False</t>
         </is>
       </c>
@@ -543,7 +543,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NO : Solicitante y Administrador no coinciden</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -568,28 +568,28 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación Universitaria
-Precio: 150000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Eléctrica', 'Ingeniería Electrónica']
+          <t>Nombre: Certificado de Servicio Comunitario Universitario - 1681714464
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial']
 Gratuito: False</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>El sistema no tiene dos certificados con el mismo nombre</t>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Servicio Comunitario Universitario - 1681714464', 'posgrado', 'Habilitado']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -609,23 +609,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación Universitaria
-Precio: 150000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Eléctrica', 'Ingeniería Electrónica']
+          <t>Nombre: Certificado de Servicio Comunitario Universitario - 1681714464
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial']
 Gratuito: False</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>El certificado se guarda con los datos correctos y está habilitado</t>
+          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>SI : ['Certificado de Servicio Comunitario Universitario - 1681714464', 'posgrado', '0', '1234567890', 'Lorem ipsum dolor sit.', ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial'], False] y ['Certificado de Servicio Comunitario Universitario - 1681714464', 'posgrado', 0, '1234567890', 'Lorem ipsum dolor sit.', ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial'], False] coinciden</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -650,28 +650,28 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación Universitaria
-Precio: 150000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Eléctrica', 'Ingeniería Electrónica']
+          <t>Nombre: Certificado de Servicio Comunitario Universitario - 1681714464
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial']
 Gratuito: False</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
+          <t>El certificado aparece en el formulario de AGGR SOL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI : Certificado de Servicio Comunitario Universitario - 1681714464 se encontró en el dropdown: ['Certificado con otra información posgrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Participación Universitaria', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Servicio Comunitario Universitario - 1681714464', 'Certificado de estudio egresado posgrado', 'Certificado de estudio posgrado', 'Certificado de estudio retirado o en reserva de cupo posgrado', 'Certificado de notas egresado posgrado', 'Certificado de notas posgrado', 'Certificado de notas retirado o en reserva de cupo posgrado', 'Certificado egresado posgrado', 'Duplicado de diploma y acta de grado posgrado', 'Plan de estudio extenso posgrado', 'Plan de estudio resumido posgrado'] para Especialización en Estructuras</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -691,34 +691,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación Universitaria
-Precio: 150000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Eléctrica', 'Ingeniería Electrónica']
+          <t>Nombre: Certificado de Servicio Comunitario Universitario - 1681714464
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial']
 Gratuito: False</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de AGGR SOL</t>
+          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO : Certificado de Servicio Comunitario Universitario - 1681714464 no se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -732,28 +732,28 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación Universitaria
+          <t>Nombre: Certificado de Investigación Estudiantil - 1681714584
 Precio: 150000
 Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Eléctrica', 'Ingeniería Electrónica']
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química']
 Gratuito: False</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación'] no coinciden</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -773,23 +773,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Reconocimiento Estudiantil
-Precio: 0
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Eléctrica', 'Ingeniería Electrónica']
-Gratuito: True</t>
+          <t>Nombre: Certificado de Investigación Estudiantil - 1681714584
+Precio: 150000
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
+          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NO : Solicitante y Administrador no coinciden</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -814,28 +814,28 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Reconocimiento Estudiantil
-Precio: 0
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Eléctrica', 'Ingeniería Electrónica']
-Gratuito: True</t>
+          <t>Nombre: Certificado de Investigación Estudiantil - 1681714584
+Precio: 150000
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Investigación Estudiantil - 1681714584', 'pregrado', 'Habilitado']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -855,28 +855,28 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Reconocimiento Estudiantil
-Precio: 0
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Eléctrica', 'Ingeniería Electrónica']
-Gratuito: True</t>
+          <t>Nombre: Certificado de Investigación Estudiantil - 1681714584
+Precio: 150000
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>El sistema no tiene dos certificados con el mismo nombre</t>
+          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI : ['Certificado de Investigación Estudiantil - 1681714584', 'pregrado', '150000', '1234567890', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química'], False] y ['Certificado de Investigación Estudiantil - 1681714584', 'pregrado', 150000, '1234567890', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química'], False] coinciden</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -896,23 +896,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Reconocimiento Estudiantil
-Precio: 0
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Eléctrica', 'Ingeniería Electrónica']
-Gratuito: True</t>
+          <t>Nombre: Certificado de Investigación Estudiantil - 1681714584
+Precio: 150000
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>El certificado se guarda con los datos correctos y está habilitado</t>
+          <t>El certificado aparece en el formulario de AGGR SOL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>SI : Certificado de Investigación Estudiantil - 1681714584 se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Desarrollo Personal y Profesional - 1681712650', 'Certificado de Desempeño Profesional - 1681712565', 'Certificado de Excelencia Académica', 'Certificado de Habilidad y Competencia - 1681712739', 'Certificado de Investigación Estudiantil', 'Certificado de Investigación Estudiantil - 1681712477', 'Certificado de Investigación Estudiantil - 1681713580', 'Certificado de Investigación Estudiantil - 1681714584', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681713173', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Participación en Proyecto de Investigación - 1681712912', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de Servicio Comunitario Universitario - 1681712394', 'Certificado de Servicio Comunitario Universitario - 1681713490', 'Certificado de Servicio Comunitario Universitario - 1681713967', 'Certificado de Servicio Comunitario Universitario - 1681714157', 'Certificado de Servicio Comunitario Universitario - 1681714288', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a37f1', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Industrial</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -937,23 +937,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Reconocimiento Estudiantil
-Precio: 0
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Eléctrica', 'Ingeniería Electrónica']
-Gratuito: True</t>
+          <t>Nombre: Certificado de Investigación Estudiantil - 1681714584
+Precio: 150000
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
+          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NO : Certificado de Investigación Estudiantil - 1681714584 no se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -964,7 +964,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -978,34 +978,34 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Reconocimiento Estudiantil
+          <t>Nombre: Certificado de Desempeño Profesional - 1681714708
 Precio: 0
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Eléctrica', 'Ingeniería Electrónica']
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica']
 Gratuito: True</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de AGGR SOL</t>
+          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación'] no coinciden</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1019,23 +1019,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Reconocimiento Estudiantil
+          <t>Nombre: Certificado de Desempeño Profesional - 1681714708
 Precio: 0
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Eléctrica', 'Ingeniería Electrónica']
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica']
 Gratuito: True</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NO : Solicitante y Administrador no coinciden</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1060,28 +1060,28 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
-Precio: 20000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica']
+          <t>Nombre: Certificado de Desempeño Profesional - 1681714708
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica']
 Gratuito: True</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Desempeño Profesional - 1681714708', 'pregrado', 'Habilitado']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1101,28 +1101,28 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
-Precio: 20000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica']
+          <t>Nombre: Certificado de Desempeño Profesional - 1681714708
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica']
 Gratuito: True</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
+          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI : ['Certificado de Desempeño Profesional - 1681714708', 'pregrado', '0', '1234567890', 'Lorem ipsum dolor sit.', ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica'], True] y ['Certificado de Desempeño Profesional - 1681714708', 'pregrado', 0, '1234567890', 'Lorem ipsum dolor sit.', ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica'], True] coinciden</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1142,28 +1142,28 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
-Precio: 20000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica']
+          <t>Nombre: Certificado de Desempeño Profesional - 1681714708
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica']
 Gratuito: True</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>El sistema no tiene dos certificados con el mismo nombre</t>
+          <t>El certificado aparece en el formulario de AGGR SOL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI : Certificado de Desempeño Profesional - 1681714708 se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Desarrollo Personal y Profesional - 1681712650', 'Certificado de Desempeño Profesional - 1681712565', 'Certificado de Desempeño Profesional - 1681714708', 'Certificado de Excelencia Académica', 'Certificado de Habilidad y Competencia - 1681712739', 'Certificado de Investigación Estudiantil', 'Certificado de Investigación Estudiantil - 1681712477', 'Certificado de Investigación Estudiantil - 1681713580', 'Certificado de Investigación Estudiantil - 1681714584', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681713173', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Participación en Proyecto de Investigación - 1681712912', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de Servicio Comunitario Universitario - 1681712394', 'Certificado de Servicio Comunitario Universitario - 1681713490', 'Certificado de Servicio Comunitario Universitario - 1681713967', 'Certificado de Servicio Comunitario Universitario - 1681714157', 'Certificado de Servicio Comunitario Universitario - 1681714288', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a37f1', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Civil</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1183,23 +1183,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
-Precio: 20000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica']
+          <t>Nombre: Certificado de Desempeño Profesional - 1681714708
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica']
 Gratuito: True</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>El certificado se guarda con los datos correctos y está habilitado</t>
+          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NO : Certificado de Desempeño Profesional - 1681714708 no se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1210,7 +1210,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1224,23 +1224,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
-Precio: 20000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica']
+          <t>Nombre: Certificado de Desarrollo Personal y Profesional - 1681714832
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
 Gratuito: True</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
+          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación'] no coinciden</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1251,7 +1251,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1265,34 +1265,34 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
-Precio: 20000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica']
+          <t>Nombre: Certificado de Desarrollo Personal y Profesional - 1681714832
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
 Gratuito: True</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de AGGR SOL</t>
+          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO : Solicitante y Administrador no coinciden</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1306,23 +1306,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
-Precio: 20000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica']
+          <t>Nombre: Certificado de Desarrollo Personal y Profesional - 1681714832
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
 Gratuito: True</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Desarrollo Personal y Profesional - 1681714832', 'pregrado', 'Habilitado']]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1347,28 +1347,28 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
-Precio: 150000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química']
+          <t>Nombre: Certificado de Desarrollo Personal y Profesional - 1681714832
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
 Gratuito: True</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
+          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI : ['Certificado de Desarrollo Personal y Profesional - 1681714832', 'pregrado', '0', '1234567890', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica'], True] y ['Certificado de Desarrollo Personal y Profesional - 1681714832', 'pregrado', 0, '1234567890', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica'], True] coinciden</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1388,28 +1388,28 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
-Precio: 150000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química']
+          <t>Nombre: Certificado de Desarrollo Personal y Profesional - 1681714832
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
 Gratuito: True</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
+          <t>El certificado aparece en el formulario de AGGR SOL</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI : Certificado de Desarrollo Personal y Profesional - 1681714832 se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Desarrollo Personal y Profesional - 1681712650', 'Certificado de Desarrollo Personal y Profesional - 1681714832', 'Certificado de Desempeño Profesional - 1681712565', 'Certificado de Desempeño Profesional - 1681714708', 'Certificado de Excelencia Académica', 'Certificado de Habilidad y Competencia - 1681712739', 'Certificado de Investigación Estudiantil', 'Certificado de Investigación Estudiantil - 1681712477', 'Certificado de Investigación Estudiantil - 1681713580', 'Certificado de Investigación Estudiantil - 1681714584', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681713173', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Participación en Proyecto de Investigación - 1681712912', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de Servicio Comunitario Universitario - 1681712394', 'Certificado de Servicio Comunitario Universitario - 1681713490', 'Certificado de Servicio Comunitario Universitario - 1681713967', 'Certificado de Servicio Comunitario Universitario - 1681714157', 'Certificado de Servicio Comunitario Universitario - 1681714288', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a37f1', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Electrónica</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1429,23 +1429,23 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
-Precio: 150000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química']
+          <t>Nombre: Certificado de Desarrollo Personal y Profesional - 1681714832
+Precio: 0
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
 Gratuito: True</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>El sistema no tiene dos certificados con el mismo nombre</t>
+          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NO : Certificado de Desarrollo Personal y Profesional - 1681714832 no se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1456,7 +1456,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1470,34 +1470,34 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
+          <t>Nombre: Certificado de Habilidad y Competencia - 1681714959
 Precio: 150000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
 Nivel: posgrado
-Programas: ['Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química']
-Gratuito: True</t>
+Programas: ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>El certificado se guarda con los datos correctos y está habilitado</t>
+          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'] no coinciden</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1511,23 +1511,23 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
+          <t>Nombre: Certificado de Habilidad y Competencia - 1681714959
 Precio: 150000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
 Nivel: posgrado
-Programas: ['Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química']
-Gratuito: True</t>
+Programas: ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
+          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NO : Solicitante y Administrador no coinciden</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1538,7 +1538,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1552,23 +1552,23 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
+          <t>Nombre: Certificado de Habilidad y Competencia - 1681714959
 Precio: 150000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
 Nivel: posgrado
-Programas: ['Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química']
-Gratuito: True</t>
+Programas: ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de AGGR SOL</t>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Habilidad y Competencia - 1681714959', 'posgrado', 'Habilitado']]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1579,7 +1579,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1593,23 +1593,23 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
+          <t>Nombre: Certificado de Habilidad y Competencia - 1681714959
 Precio: 150000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
 Nivel: posgrado
-Programas: ['Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química']
-Gratuito: True</t>
+Programas: ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>SI : ['Certificado de Habilidad y Competencia - 1681714959', 'posgrado', '150000', '1234567890', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica'], False] y ['Certificado de Habilidad y Competencia - 1681714959', 'posgrado', 150000, '1234567890', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica'], False] coinciden</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1634,28 +1634,28 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
-Precio: 10000
-Num Consig: 2023000
+          <t>Nombre: Certificado de Habilidad y Competencia - 1681714959
+Precio: 150000
+Num Consig: 1234567890
 Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
 Nivel: posgrado
-Programas: ['Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos']
-Gratuito: True</t>
+Programas: ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
+          <t>El certificado aparece en el formulario de AGGR SOL</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI : Certificado de Habilidad y Competencia - 1681714959 se encontró en el dropdown: ['Certificado con otra información posgrado', 'Certificado de Excelencia Académica', 'Certificado de Habilidad y Competencia - 1681714959', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Participación Universitaria', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Servicio Comunitario Universitario - 1681714464', 'Certificado de estudio egresado posgrado', 'Certificado de estudio posgrado', 'Certificado de estudio retirado o en reserva de cupo posgrado', 'Certificado de notas egresado posgrado', 'Certificado de notas posgrado', 'Certificado de notas retirado o en reserva de cupo posgrado', 'Certificado egresado posgrado', 'Duplicado de diploma y acta de grado posgrado', 'Plan de estudio extenso posgrado', 'Plan de estudio resumido posgrado'] para Maestría en Ingeniería Electrónica</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1675,410 +1675,1228 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
-Precio: 10000
-Num Consig: 2023000
+          <t>Nombre: Certificado de Habilidad y Competencia - 1681714959
+Precio: 150000
+Num Consig: 1234567890
 Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
 Nivel: posgrado
-Programas: ['Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos']
+Programas: ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO : Certificado de Habilidad y Competencia - 1681714959 no se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Logro en Programa de Prácticas - 1681715084
+Precio: 0
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada']
 Gratuito: True</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'] no coinciden</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Logro en Programa de Prácticas - 1681715084
+Precio: 0
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada']
+Gratuito: True</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO : Solicitante y Administrador no coinciden</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Logro en Programa de Prácticas - 1681715084
+Precio: 0
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada']
+Gratuito: True</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Logro en Programa de Prácticas - 1681715084', 'posgrado', 'Habilitado']]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Logro en Programa de Prácticas - 1681715084
+Precio: 0
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada']
+Gratuito: True</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>SI : ['Certificado de Logro en Programa de Prácticas - 1681715084', 'posgrado', '0', '2023000', 'Lorem ipsum dolor sit.', ['Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada'], True] y ['Certificado de Logro en Programa de Prácticas - 1681715084', 'posgrado', 0, '2023000', 'Lorem ipsum dolor sit.', ['Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada'], True] coinciden</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Logro en Programa de Prácticas - 1681715084
+Precio: 0
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada']
+Gratuito: True</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>EXCEPTION</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Message: element not interactable
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//div[contains(@class, 'menuable__content__active')]//div[contains(text(),'Doctorado en Ingeniería Sistemas y Computación')]"}
   (Session info: chrome=112.0.5615.86)
 Stacktrace:
 Backtrace:
-	GetHandleVerifier [0x004FDCE3+50899]
-	(No symbol) [0x0048E111]
-	(No symbol) [0x00395450]
-	(No symbol) [0x003BC706]
-	(No symbol) [0x003BBFD0]
-	(No symbol) [0x003DB8FC]
-	(No symbol) [0x003B8EC6]
-	(No symbol) [0x003DBC54]
-	(No symbol) [0x003EE01C]
-	(No symbol) [0x003DB6F6]
-	(No symbol) [0x003B7708]
-	(No symbol) [0x003B886D]
-	GetHandleVerifier [0x00763EAE+2566302]
-	GetHandleVerifier [0x007992B1+2784417]
-	GetHandleVerifier [0x0079327C+2759788]
-	GetHandleVerifier [0x00595740+672048]
-	(No symbol) [0x00498872]
-	(No symbol) [0x004941C8]
-	(No symbol) [0x004942AB]
-	(No symbol) [0x004871B7]
+	GetHandleVerifier [0x0090DCE3+50899]
+	(No symbol) [0x0089E111]
+	(No symbol) [0x007A5588]
+	(No symbol) [0x007D08F9]
+	(No symbol) [0x007D0AFB]
+	(No symbol) [0x007FF902]
+	(No symbol) [0x007EB944]
+	(No symbol) [0x007FE01C]
+	(No symbol) [0x007EB6F6]
+	(No symbol) [0x007C7708]
+	(No symbol) [0x007C886D]
+	GetHandleVerifier [0x00B73EAE+2566302]
+	GetHandleVerifier [0x00BA92B1+2784417]
+	GetHandleVerifier [0x00BA327C+2759788]
+	GetHandleVerifier [0x009A5740+672048]
+	(No symbol) [0x008A8872]
+	(No symbol) [0x008A41C8]
+	(No symbol) [0x008A42AB]
+	(No symbol) [0x008971B7]
 	BaseThreadInitThunk [0x76947D49+25]
 	RtlInitializeExceptionChain [0x77A2B74B+107]
 	RtlClearBits [0x77A2B6CF+191]
 </t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>FAILED</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Agregar Certificado</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Administrador</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Nombre: Certificado de Liderazgo Estudiantil
-Precio: 10000
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Participación en Proyecto de Investigación - 1681715170
+Precio: 20000
 Num Consig: 1234567890
 Desc: Lorem ipsum dolor sit.
 Nivel: posgrado
-Programas: ['Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos']
-Gratuito: True</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
+Programas: ['Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'] no coinciden</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Participación en Proyecto de Investigación - 1681715170
+Precio: 20000
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO : Solicitante y Administrador no coinciden</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Participación en Proyecto de Investigación - 1681715170
+Precio: 20000
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Participación en Proyecto de Investigación - 1681715170', 'posgrado', 'Habilitado']]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Participación en Proyecto de Investigación - 1681715170
+Precio: 20000
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SI : ['Certificado de Participación en Proyecto de Investigación - 1681715170', 'posgrado', '20000', '1234567890', 'Lorem ipsum dolor sit.', ['Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras'], False] y ['Certificado de Participación en Proyecto de Investigación - 1681715170', 'posgrado', 20000, '1234567890', 'Lorem ipsum dolor sit.', ['Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras'], False] coinciden</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Participación en Proyecto de Investigación - 1681715170
+Precio: 20000
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>EXCEPTION</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Message: element click intercepted: Element &lt;div class="v-select__selections"&gt;...&lt;/div&gt; is not clickable at point (152, 13). Other element would receive the click: &lt;div class="v-overlay__scrim" style="opacity: 0.46; background-color: rgb(33, 33, 33); border-color: rgb(33, 33, 33);"&gt;&lt;/div&gt;
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//div[contains(@class, 'menuable__content__active')]//div[contains(text(),'Doctorado en Ingeniería Eléctrica')]"}
   (Session info: chrome=112.0.5615.86)
 Stacktrace:
 Backtrace:
-	GetHandleVerifier [0x004FDCE3+50899]
-	(No symbol) [0x0048E111]
-	(No symbol) [0x00395588]
-	(No symbol) [0x003C5A7A]
-	(No symbol) [0x003C4336]
-	(No symbol) [0x003C267B]
-	(No symbol) [0x003C1797]
-	(No symbol) [0x003B94A5]
-	(No symbol) [0x003DB8FC]
-	(No symbol) [0x003B8EC6]
-	(No symbol) [0x003DBC54]
-	(No symbol) [0x003EE01C]
-	(No symbol) [0x003DB6F6]
-	(No symbol) [0x003B7708]
-	(No symbol) [0x003B886D]
-	GetHandleVerifier [0x00763EAE+2566302]
-	GetHandleVerifier [0x007992B1+2784417]
-	GetHandleVerifier [0x0079327C+2759788]
-	GetHandleVerifier [0x00595740+672048]
-	(No symbol) [0x00498872]
-	(No symbol) [0x004941C8]
-	(No symbol) [0x004942AB]
-	(No symbol) [0x004871B7]
+	GetHandleVerifier [0x0090DCE3+50899]
+	(No symbol) [0x0089E111]
+	(No symbol) [0x007A5588]
+	(No symbol) [0x007D08F9]
+	(No symbol) [0x007D0AFB]
+	(No symbol) [0x007FF902]
+	(No symbol) [0x007EB944]
+	(No symbol) [0x007FE01C]
+	(No symbol) [0x007EB6F6]
+	(No symbol) [0x007C7708]
+	(No symbol) [0x007C886D]
+	GetHandleVerifier [0x00B73EAE+2566302]
+	GetHandleVerifier [0x00BA92B1+2784417]
+	GetHandleVerifier [0x00BA327C+2759788]
+	GetHandleVerifier [0x009A5740+672048]
+	(No symbol) [0x008A8872]
+	(No symbol) [0x008A41C8]
+	(No symbol) [0x008A42AB]
+	(No symbol) [0x008971B7]
 	BaseThreadInitThunk [0x76947D49+25]
 	RtlInitializeExceptionChain [0x77A2B74B+107]
 	RtlClearBits [0x77A2B6CF+191]
 </t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>FAILED</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Agregar Certificado</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Administrador</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Nombre: Certificado de Excelencia Académica
-Precio: 150000
+    <row r="42">
+      <c r="A42" t="n">
+        <v>8</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Participación en Concurso de Innovación - 1681715258
+Precio: 10000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación'] no coinciden</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Participación en Concurso de Innovación - 1681715258
+Precio: 10000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO : Solicitante y Administrador no coinciden</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>8</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Participación en Concurso de Innovación - 1681715258
+Precio: 10000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Participación en Concurso de Innovación - 1681715258', 'pregrado', 'Habilitado']]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>8</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Participación en Concurso de Innovación - 1681715258
+Precio: 10000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>SI : ['Certificado de Participación en Concurso de Innovación - 1681715258', 'pregrado', '10000', '2023000', 'Lorem ipsum dolor sit.', ['Ingeniería Industrial', 'Ingeniería Mecatrónica'], True] y ['Certificado de Participación en Concurso de Innovación - 1681715258', 'pregrado', 10000, '2023000', 'Lorem ipsum dolor sit.', ['Ingeniería Industrial', 'Ingeniería Mecatrónica'], True] coinciden</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>8</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Participación en Concurso de Innovación - 1681715258
+Precio: 10000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>El certificado aparece en el formulario de AGGR SOL</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>SI : Certificado de Participación en Concurso de Innovación - 1681715258 se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Desarrollo Personal y Profesional - 1681712650', 'Certificado de Desarrollo Personal y Profesional - 1681714832', 'Certificado de Desempeño Profesional - 1681712565', 'Certificado de Desempeño Profesional - 1681714708', 'Certificado de Excelencia Académica', 'Certificado de Habilidad y Competencia - 1681712739', 'Certificado de Investigación Estudiantil', 'Certificado de Investigación Estudiantil - 1681712477', 'Certificado de Investigación Estudiantil - 1681713580', 'Certificado de Investigación Estudiantil - 1681714584', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681713173', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Participación en Concurso de Innovación - 1681715258', 'Certificado de Participación en Proyecto de Investigación - 1681712912', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de Servicio Comunitario Universitario - 1681712394', 'Certificado de Servicio Comunitario Universitario - 1681713490', 'Certificado de Servicio Comunitario Universitario - 1681713967', 'Certificado de Servicio Comunitario Universitario - 1681714157', 'Certificado de Servicio Comunitario Universitario - 1681714288', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a37f1', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Industrial</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Participación en Concurso de Innovación - 1681715258
+Precio: 10000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO : Certificado de Participación en Concurso de Innovación - 1681715258 no se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380
+Precio: 20000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación'] no coinciden</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>9</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380
+Precio: 20000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO : Solicitante y Administrador no coinciden</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380
+Precio: 20000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380', 'pregrado', 'Habilitado']]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>9</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380
+Precio: 20000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>SI : ['Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380', 'pregrado', '20000', '2023000', 'Lorem ipsum dolor sit.', ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial'], False] y ['Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380', 'pregrado', 20000, '2023000', 'Lorem ipsum dolor sit.', ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial'], False] coinciden</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>9</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380
+Precio: 20000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>El certificado aparece en el formulario de AGGR SOL</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SI : Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380 se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Desarrollo Personal y Profesional - 1681712650', 'Certificado de Desarrollo Personal y Profesional - 1681714832', 'Certificado de Desempeño Profesional - 1681712565', 'Certificado de Desempeño Profesional - 1681714708', 'Certificado de Excelencia Académica', 'Certificado de Habilidad y Competencia - 1681712739', 'Certificado de Investigación Estudiantil', 'Certificado de Investigación Estudiantil - 1681712477', 'Certificado de Investigación Estudiantil - 1681713580', 'Certificado de Investigación Estudiantil - 1681714584', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681713173', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Participación en Concurso de Innovación - 1681715258', 'Certificado de Participación en Proyecto de Investigación - 1681712912', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380', 'Certificado de Servicio Comunitario Universitario', 'Certificado de Servicio Comunitario Universitario - 1681712394', 'Certificado de Servicio Comunitario Universitario - 1681713490', 'Certificado de Servicio Comunitario Universitario - 1681713967', 'Certificado de Servicio Comunitario Universitario - 1681714157', 'Certificado de Servicio Comunitario Universitario - 1681714288', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a37f1', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Civil</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>9</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380
+Precio: 20000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO : Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380 no se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507
+Precio: 50000
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: posgrado
-Programas: ['Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones']
-Gratuito: True</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>EXCEPTION</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Message: element click intercepted: Element &lt;div class="v-select__selections"&gt;...&lt;/div&gt; is not clickable at point (152, 13). Other element would receive the click: &lt;div class="v-overlay__scrim" style="opacity: 0.46; background-color: rgb(33, 33, 33); border-color: rgb(33, 33, 33);"&gt;&lt;/div&gt;
-  (Session info: chrome=112.0.5615.86)
-Stacktrace:
-Backtrace:
-	GetHandleVerifier [0x004FDCE3+50899]
-	(No symbol) [0x0048E111]
-	(No symbol) [0x00395588]
-	(No symbol) [0x003C5A7A]
-	(No symbol) [0x003C4336]
-	(No symbol) [0x003C267B]
-	(No symbol) [0x003C1797]
-	(No symbol) [0x003B94A5]
-	(No symbol) [0x003DB8FC]
-	(No symbol) [0x003B8EC6]
-	(No symbol) [0x003DBC54]
-	(No symbol) [0x003EE01C]
-	(No symbol) [0x003DB6F6]
-	(No symbol) [0x003B7708]
-	(No symbol) [0x003B886D]
-	GetHandleVerifier [0x00763EAE+2566302]
-	GetHandleVerifier [0x007992B1+2784417]
-	GetHandleVerifier [0x0079327C+2759788]
-	GetHandleVerifier [0x00595740+672048]
-	(No symbol) [0x00498872]
-	(No symbol) [0x004941C8]
-	(No symbol) [0x004942AB]
-	(No symbol) [0x004871B7]
-	BaseThreadInitThunk [0x76947D49+25]
-	RtlInitializeExceptionChain [0x77A2B74B+107]
-	RtlClearBits [0x77A2B6CF+191]
-</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
+Nivel: pregrado
+Programas: ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación'] no coinciden</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>FAILED</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Agregar Certificado</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Administrador</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Nombre: Certificado de Logro Académico
-Precio: 0
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones']
-Gratuito: True</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>EXCEPTION</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Message: element click intercepted: Element &lt;div class="v-select__selections"&gt;...&lt;/div&gt; is not clickable at point (152, 13). Other element would receive the click: &lt;div class="v-overlay__scrim" style="opacity: 0.46; background-color: rgb(33, 33, 33); border-color: rgb(33, 33, 33);"&gt;&lt;/div&gt;
-  (Session info: chrome=112.0.5615.86)
-Stacktrace:
-Backtrace:
-	GetHandleVerifier [0x004FDCE3+50899]
-	(No symbol) [0x0048E111]
-	(No symbol) [0x00395588]
-	(No symbol) [0x003C5A7A]
-	(No symbol) [0x003C4336]
-	(No symbol) [0x003C267B]
-	(No symbol) [0x003C1797]
-	(No symbol) [0x003B94A5]
-	(No symbol) [0x003DB8FC]
-	(No symbol) [0x003B8EC6]
-	(No symbol) [0x003DBC54]
-	(No symbol) [0x003EE01C]
-	(No symbol) [0x003DB6F6]
-	(No symbol) [0x003B7708]
-	(No symbol) [0x003B886D]
-	GetHandleVerifier [0x00763EAE+2566302]
-	GetHandleVerifier [0x007992B1+2784417]
-	GetHandleVerifier [0x0079327C+2759788]
-	GetHandleVerifier [0x00595740+672048]
-	(No symbol) [0x00498872]
-	(No symbol) [0x004941C8]
-	(No symbol) [0x004942AB]
-	(No symbol) [0x004871B7]
-	BaseThreadInitThunk [0x76947D49+25]
-	RtlInitializeExceptionChain [0x77A2B74B+107]
-	RtlClearBits [0x77A2B6CF+191]
-</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507
+Precio: 50000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO : Solicitante y Administrador no coinciden</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>FAILED</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>9</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Agregar Certificado</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Administrador</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Nombre: Certificado de Excelencia Académica
-Precio: 150000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Electrónica', 'Ingeniería Industrial', 'Ingeniería Mecánica', 'Ingeniería Mecatrónica']
-Gratuito: False</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>EXCEPTION</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Message: element click intercepted: Element &lt;div class="v-select__selections"&gt;...&lt;/div&gt; is not clickable at point (152, 13). Other element would receive the click: &lt;div class="v-overlay__scrim" style="opacity: 0.46; background-color: rgb(33, 33, 33); border-color: rgb(33, 33, 33);"&gt;&lt;/div&gt;
-  (Session info: chrome=112.0.5615.86)
-Stacktrace:
-Backtrace:
-	GetHandleVerifier [0x004FDCE3+50899]
-	(No symbol) [0x0048E111]
-	(No symbol) [0x00395588]
-	(No symbol) [0x003C5A7A]
-	(No symbol) [0x003C4336]
-	(No symbol) [0x003C267B]
-	(No symbol) [0x003C1797]
-	(No symbol) [0x003B94A5]
-	(No symbol) [0x003DB8FC]
-	(No symbol) [0x003B8EC6]
-	(No symbol) [0x003DBC54]
-	(No symbol) [0x003EE01C]
-	(No symbol) [0x003DB6F6]
-	(No symbol) [0x003B7708]
-	(No symbol) [0x003B886D]
-	GetHandleVerifier [0x00763EAE+2566302]
-	GetHandleVerifier [0x007992B1+2784417]
-	GetHandleVerifier [0x0079327C+2759788]
-	GetHandleVerifier [0x00595740+672048]
-	(No symbol) [0x00498872]
-	(No symbol) [0x004941C8]
-	(No symbol) [0x004942AB]
-	(No symbol) [0x004871B7]
-	BaseThreadInitThunk [0x76947D49+25]
-	RtlInitializeExceptionChain [0x77A2B74B+107]
-	RtlClearBits [0x77A2B6CF+191]
-</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="56">
+      <c r="A56" t="n">
         <v>10</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Agregar Certificado</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Administrador</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Nombre: Certificado de Excelencia Académica
-Precio: 20000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Eléctrica', 'Ingeniería Electrónica', 'Ingeniería Industrial']
-Gratuito: False</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>EXCEPTION</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Message: element click intercepted: Element &lt;div class="v-select__selections"&gt;...&lt;/div&gt; is not clickable at point (152, 13). Other element would receive the click: &lt;div class="v-overlay__scrim" style="opacity: 0.46; background-color: rgb(33, 33, 33); border-color: rgb(33, 33, 33);"&gt;&lt;/div&gt;
-  (Session info: chrome=112.0.5615.86)
-Stacktrace:
-Backtrace:
-	GetHandleVerifier [0x004FDCE3+50899]
-	(No symbol) [0x0048E111]
-	(No symbol) [0x00395588]
-	(No symbol) [0x003C5A7A]
-	(No symbol) [0x003C4336]
-	(No symbol) [0x003C267B]
-	(No symbol) [0x003C1797]
-	(No symbol) [0x003B94A5]
-	(No symbol) [0x003DB8FC]
-	(No symbol) [0x003B8EC6]
-	(No symbol) [0x003DBC54]
-	(No symbol) [0x003EE01C]
-	(No symbol) [0x003DB6F6]
-	(No symbol) [0x003B7708]
-	(No symbol) [0x003B886D]
-	GetHandleVerifier [0x00763EAE+2566302]
-	GetHandleVerifier [0x007992B1+2784417]
-	GetHandleVerifier [0x0079327C+2759788]
-	GetHandleVerifier [0x00595740+672048]
-	(No symbol) [0x00498872]
-	(No symbol) [0x004941C8]
-	(No symbol) [0x004942AB]
-	(No symbol) [0x004871B7]
-	BaseThreadInitThunk [0x76947D49+25]
-	RtlInitializeExceptionChain [0x77A2B74B+107]
-	RtlClearBits [0x77A2B6CF+191]
-</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>FAILED</t>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507
+Precio: 50000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507', 'pregrado', 'Habilitado']]</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507
+Precio: 50000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>SI : ['Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507', 'pregrado', '50000', '2023000', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial'], False] y ['Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507', 'pregrado', 50000, '2023000', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial'], False] coinciden</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507
+Precio: 50000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>El certificado aparece en el formulario de AGGR SOL</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>SI : Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507 se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Desarrollo Personal y Profesional - 1681712650', 'Certificado de Desarrollo Personal y Profesional - 1681714832', 'Certificado de Desempeño Profesional - 1681712565', 'Certificado de Desempeño Profesional - 1681714708', 'Certificado de Excelencia Académica', 'Certificado de Habilidad y Competencia - 1681712739', 'Certificado de Investigación Estudiantil', 'Certificado de Investigación Estudiantil - 1681712477', 'Certificado de Investigación Estudiantil - 1681713580', 'Certificado de Investigación Estudiantil - 1681714584', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681713173', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Participación en Concurso de Innovación - 1681715258', 'Certificado de Participación en Proyecto de Investigación - 1681712912', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380', 'Certificado de Servicio Comunitario Universitario', 'Certificado de Servicio Comunitario Universitario - 1681712394', 'Certificado de Servicio Comunitario Universitario - 1681713490', 'Certificado de Servicio Comunitario Universitario - 1681713967', 'Certificado de Servicio Comunitario Universitario - 1681714157', 'Certificado de Servicio Comunitario Universitario - 1681714288', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a37f1', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Agregar Certificado</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Administrador</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Nombre: Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507
+Precio: 50000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Nivel: pregrado
+Programas: ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>SI : Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507 se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>PASSED</t>
         </is>
       </c>
     </row>

--- a/results/aggr_cert_test_results.xlsx
+++ b/results/aggr_cert_test_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,13 +486,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Servicio Comunitario Universitario - 1681714464
-Precio: 0
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial']
-Gratuito: False</t>
+          <t>Nombre: Certificado - 1682638508
+Precio: 150000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'] no coinciden</t>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación'] no coinciden</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -527,13 +527,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Servicio Comunitario Universitario - 1681714464
-Precio: 0
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial']
-Gratuito: False</t>
+          <t>Nombre: Certificado - 1682638508
+Precio: 150000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -568,13 +568,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Servicio Comunitario Universitario - 1681714464
-Precio: 0
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial']
-Gratuito: False</t>
+          <t>Nombre: Certificado - 1682638508
+Precio: 150000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Servicio Comunitario Universitario - 1681714464', 'posgrado', 'Habilitado']]</t>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado - 1682638508', 'pregrado', 'Habilitado']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,13 +609,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Servicio Comunitario Universitario - 1681714464
-Precio: 0
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial']
-Gratuito: False</t>
+          <t>Nombre: Certificado - 1682638508
+Precio: 150000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SI : ['Certificado de Servicio Comunitario Universitario - 1681714464', 'posgrado', '0', '1234567890', 'Lorem ipsum dolor sit.', ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial'], False] y ['Certificado de Servicio Comunitario Universitario - 1681714464', 'posgrado', 0, '1234567890', 'Lorem ipsum dolor sit.', ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial'], False] coinciden</t>
+          <t>SI : ['Certificado - 1682638508', 'pregrado', '150000', '2023000', 'Lorem ipsum dolor sit.', ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica'], True] y ['Certificado - 1682638508', 'pregrado', 150000, '2023000', 'Lorem ipsum dolor sit.', ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica'], True] coinciden</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -650,13 +650,13 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Servicio Comunitario Universitario - 1681714464
-Precio: 0
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial']
-Gratuito: False</t>
+          <t>Nombre: Certificado - 1682638508
+Precio: 150000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SI : Certificado de Servicio Comunitario Universitario - 1681714464 se encontró en el dropdown: ['Certificado con otra información posgrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Participación Universitaria', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Servicio Comunitario Universitario - 1681714464', 'Certificado de estudio egresado posgrado', 'Certificado de estudio posgrado', 'Certificado de estudio retirado o en reserva de cupo posgrado', 'Certificado de notas egresado posgrado', 'Certificado de notas posgrado', 'Certificado de notas retirado o en reserva de cupo posgrado', 'Certificado egresado posgrado', 'Duplicado de diploma y acta de grado posgrado', 'Plan de estudio extenso posgrado', 'Plan de estudio resumido posgrado'] para Especialización en Estructuras</t>
+          <t>SI : Certificado - 1682638508 se encontró en el dropdown: ['Certificado - 1682570149', 'Certificado - 1682638508', 'Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Civil</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -691,28 +691,28 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Servicio Comunitario Universitario - 1681714464
-Precio: 0
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit.
-Nivel: posgrado
-Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial']
-Gratuito: False</t>
+          <t>Nombre: Certificado - 1682638508
+Precio: 150000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+          <t>El certificado aparece en el formulario de NUEVO TICKET según el programa seleccionado</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NO : Certificado de Servicio Comunitario Universitario - 1681714464 no se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
+          <t>SI : Certificado - 1682638508 no se encontró en el dropdown: ['Certificado - 1682570149', 'Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -732,13 +732,13 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Investigación Estudiantil - 1681714584
-Precio: 150000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+          <t>Nombre: Certificado - 1682638641
+Precio: 20000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química']
-Gratuito: False</t>
+Programas: ['Ingeniería Eléctrica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -773,13 +773,13 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Investigación Estudiantil - 1681714584
-Precio: 150000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+          <t>Nombre: Certificado - 1682638641
+Precio: 20000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química']
-Gratuito: False</t>
+Programas: ['Ingeniería Eléctrica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -814,13 +814,13 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Investigación Estudiantil - 1681714584
-Precio: 150000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+          <t>Nombre: Certificado - 1682638641
+Precio: 20000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química']
-Gratuito: False</t>
+Programas: ['Ingeniería Eléctrica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Investigación Estudiantil - 1681714584', 'pregrado', 'Habilitado']]</t>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado - 1682638641', 'pregrado', 'Habilitado']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -855,13 +855,13 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Investigación Estudiantil - 1681714584
-Precio: 150000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+          <t>Nombre: Certificado - 1682638641
+Precio: 20000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química']
-Gratuito: False</t>
+Programas: ['Ingeniería Eléctrica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SI : ['Certificado de Investigación Estudiantil - 1681714584', 'pregrado', '150000', '1234567890', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química'], False] y ['Certificado de Investigación Estudiantil - 1681714584', 'pregrado', 150000, '1234567890', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química'], False] coinciden</t>
+          <t>SI : ['Certificado - 1682638641', 'pregrado', '20000', '2023000', 'Lorem ipsum dolor sit.', ['Ingeniería Eléctrica'], True] y ['Certificado - 1682638641', 'pregrado', 20000, '2023000', 'Lorem ipsum dolor sit.', ['Ingeniería Eléctrica'], True] coinciden</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -896,13 +896,13 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Investigación Estudiantil - 1681714584
-Precio: 150000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+          <t>Nombre: Certificado - 1682638641
+Precio: 20000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química']
-Gratuito: False</t>
+Programas: ['Ingeniería Eléctrica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SI : Certificado de Investigación Estudiantil - 1681714584 se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Desarrollo Personal y Profesional - 1681712650', 'Certificado de Desempeño Profesional - 1681712565', 'Certificado de Excelencia Académica', 'Certificado de Habilidad y Competencia - 1681712739', 'Certificado de Investigación Estudiantil', 'Certificado de Investigación Estudiantil - 1681712477', 'Certificado de Investigación Estudiantil - 1681713580', 'Certificado de Investigación Estudiantil - 1681714584', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681713173', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Participación en Proyecto de Investigación - 1681712912', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de Servicio Comunitario Universitario - 1681712394', 'Certificado de Servicio Comunitario Universitario - 1681713490', 'Certificado de Servicio Comunitario Universitario - 1681713967', 'Certificado de Servicio Comunitario Universitario - 1681714157', 'Certificado de Servicio Comunitario Universitario - 1681714288', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a37f1', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Industrial</t>
+          <t>SI : Certificado - 1682638641 se encontró en el dropdown: ['Certificado - 1682570149', 'Certificado - 1682638508', 'Certificado - 1682638641', 'Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Eléctrica</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -937,28 +937,28 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Investigación Estudiantil - 1681714584
-Precio: 150000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+          <t>Nombre: Certificado - 1682638641
+Precio: 20000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química']
-Gratuito: False</t>
+Programas: ['Ingeniería Eléctrica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+          <t>El certificado aparece en el formulario de NUEVO TICKET según el programa seleccionado</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NO : Certificado de Investigación Estudiantil - 1681714584 no se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
+          <t>SI : Certificado - 1682638641 no se encontró en el dropdown: ['Certificado - 1682570149', 'Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -978,13 +978,13 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Desempeño Profesional - 1681714708
-Precio: 0
-Num Consig: 1234567890
+          <t>Nombre: Certificado - 1682638776
+Precio: 20000
+Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica']
-Gratuito: True</t>
+Programas: ['Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1019,13 +1019,13 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Desempeño Profesional - 1681714708
-Precio: 0
-Num Consig: 1234567890
+          <t>Nombre: Certificado - 1682638776
+Precio: 20000
+Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica']
-Gratuito: True</t>
+Programas: ['Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1060,13 +1060,13 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Desempeño Profesional - 1681714708
-Precio: 0
-Num Consig: 1234567890
+          <t>Nombre: Certificado - 1682638776
+Precio: 20000
+Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica']
-Gratuito: True</t>
+Programas: ['Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Desempeño Profesional - 1681714708', 'pregrado', 'Habilitado']]</t>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado - 1682638776', 'pregrado', 'Habilitado']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1101,13 +1101,13 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Desempeño Profesional - 1681714708
-Precio: 0
-Num Consig: 1234567890
+          <t>Nombre: Certificado - 1682638776
+Precio: 20000
+Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica']
-Gratuito: True</t>
+Programas: ['Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SI : ['Certificado de Desempeño Profesional - 1681714708', 'pregrado', '0', '1234567890', 'Lorem ipsum dolor sit.', ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica'], True] y ['Certificado de Desempeño Profesional - 1681714708', 'pregrado', 0, '1234567890', 'Lorem ipsum dolor sit.', ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica'], True] coinciden</t>
+          <t>SI : ['Certificado - 1682638776', 'pregrado', '20000', '2023000', 'Lorem ipsum dolor sit.', ['Ingeniería Eléctrica', 'Ingeniería Industrial'], False] y ['Certificado - 1682638776', 'pregrado', 20000, '2023000', 'Lorem ipsum dolor sit.', ['Ingeniería Eléctrica', 'Ingeniería Industrial'], False] coinciden</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1142,13 +1142,13 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Desempeño Profesional - 1681714708
-Precio: 0
-Num Consig: 1234567890
+          <t>Nombre: Certificado - 1682638776
+Precio: 20000
+Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica']
-Gratuito: True</t>
+Programas: ['Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SI : Certificado de Desempeño Profesional - 1681714708 se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Desarrollo Personal y Profesional - 1681712650', 'Certificado de Desempeño Profesional - 1681712565', 'Certificado de Desempeño Profesional - 1681714708', 'Certificado de Excelencia Académica', 'Certificado de Habilidad y Competencia - 1681712739', 'Certificado de Investigación Estudiantil', 'Certificado de Investigación Estudiantil - 1681712477', 'Certificado de Investigación Estudiantil - 1681713580', 'Certificado de Investigación Estudiantil - 1681714584', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681713173', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Participación en Proyecto de Investigación - 1681712912', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de Servicio Comunitario Universitario - 1681712394', 'Certificado de Servicio Comunitario Universitario - 1681713490', 'Certificado de Servicio Comunitario Universitario - 1681713967', 'Certificado de Servicio Comunitario Universitario - 1681714157', 'Certificado de Servicio Comunitario Universitario - 1681714288', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a37f1', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Civil</t>
+          <t>SI : Certificado - 1682638776 se encontró en el dropdown: ['Certificado - 1682570149', 'Certificado - 1682638508', 'Certificado - 1682638641', 'Certificado - 1682638776', 'Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Eléctrica</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1183,28 +1183,28 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Desempeño Profesional - 1681714708
-Precio: 0
-Num Consig: 1234567890
+          <t>Nombre: Certificado - 1682638776
+Precio: 20000
+Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica']
-Gratuito: True</t>
+Programas: ['Ingeniería Eléctrica', 'Ingeniería Industrial']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+          <t>El certificado aparece en el formulario de NUEVO TICKET según el programa seleccionado</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NO : Certificado de Desempeño Profesional - 1681714708 no se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
+          <t>SI : Certificado - 1682638776 no se encontró en el dropdown: ['Certificado - 1682570149', 'Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Desarrollo Personal y Profesional - 1681714832
-Precio: 0
+          <t>Nombre: Certificado - 1682638911
+Precio: 50000
 Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: pregrado
-Programas: ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación']
 Gratuito: True</t>
         </is>
       </c>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación'] no coinciden</t>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'] no coinciden</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Desarrollo Personal y Profesional - 1681714832
-Precio: 0
+          <t>Nombre: Certificado - 1682638911
+Precio: 50000
 Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: pregrado
-Programas: ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación']
 Gratuito: True</t>
         </is>
       </c>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Desarrollo Personal y Profesional - 1681714832
-Precio: 0
+          <t>Nombre: Certificado - 1682638911
+Precio: 50000
 Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: pregrado
-Programas: ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación']
 Gratuito: True</t>
         </is>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Desarrollo Personal y Profesional - 1681714832', 'pregrado', 'Habilitado']]</t>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado - 1682638911', 'posgrado', 'Habilitado']]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1347,12 +1347,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Desarrollo Personal y Profesional - 1681714832
-Precio: 0
+          <t>Nombre: Certificado - 1682638911
+Precio: 50000
 Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: pregrado
-Programas: ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación']
 Gratuito: True</t>
         </is>
       </c>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SI : ['Certificado de Desarrollo Personal y Profesional - 1681714832', 'pregrado', '0', '1234567890', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica'], True] y ['Certificado de Desarrollo Personal y Profesional - 1681714832', 'pregrado', 0, '1234567890', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica'], True] coinciden</t>
+          <t>SI : ['Certificado - 1682638911', 'posgrado', '50000', '1234567890', 'Lorem ipsum dolor sit.', ['Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación'], True] y ['Certificado - 1682638911', 'posgrado', 50000, '1234567890', 'Lorem ipsum dolor sit.', ['Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación'], True] coinciden</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1388,34 +1388,60 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Desarrollo Personal y Profesional - 1681714832
-Precio: 0
+          <t>Nombre: Certificado - 1682638911
+Precio: 50000
 Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: pregrado
-Programas: ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación']
 Gratuito: True</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de AGGR SOL</t>
+          <t>EXCEPTION</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SI : Certificado de Desarrollo Personal y Profesional - 1681714832 se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Desarrollo Personal y Profesional - 1681712650', 'Certificado de Desarrollo Personal y Profesional - 1681714832', 'Certificado de Desempeño Profesional - 1681712565', 'Certificado de Desempeño Profesional - 1681714708', 'Certificado de Excelencia Académica', 'Certificado de Habilidad y Competencia - 1681712739', 'Certificado de Investigación Estudiantil', 'Certificado de Investigación Estudiantil - 1681712477', 'Certificado de Investigación Estudiantil - 1681713580', 'Certificado de Investigación Estudiantil - 1681714584', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681713173', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Participación en Proyecto de Investigación - 1681712912', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de Servicio Comunitario Universitario - 1681712394', 'Certificado de Servicio Comunitario Universitario - 1681713490', 'Certificado de Servicio Comunitario Universitario - 1681713967', 'Certificado de Servicio Comunitario Universitario - 1681714157', 'Certificado de Servicio Comunitario Universitario - 1681714288', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a37f1', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Electrónica</t>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//div[contains(@class, 'menuable__content__active')]//div[contains(text(),'Doctorado en Ingeniería Mecánica y Mecatrónica')]"}
+  (Session info: chrome=112.0.5615.138)
+Stacktrace:
+Backtrace:
+	GetHandleVerifier [0x0091DCE3+50899]
+	(No symbol) [0x008AE111]
+	(No symbol) [0x007B5588]
+	(No symbol) [0x007E08F9]
+	(No symbol) [0x007E0AFB]
+	(No symbol) [0x0080F902]
+	(No symbol) [0x007FB944]
+	(No symbol) [0x0080E01C]
+	(No symbol) [0x007FB6F6]
+	(No symbol) [0x007D7708]
+	(No symbol) [0x007D886D]
+	GetHandleVerifier [0x00B83EAE+2566302]
+	GetHandleVerifier [0x00BB92B1+2784417]
+	GetHandleVerifier [0x00BB327C+2759788]
+	GetHandleVerifier [0x009B5740+672048]
+	(No symbol) [0x008B8872]
+	(No symbol) [0x008B41C8]
+	(No symbol) [0x008B42AB]
+	(No symbol) [0x008A71B7]
+	BaseThreadInitThunk [0x774E7D49+25]
+	RtlInitializeExceptionChain [0x77DCB74B+107]
+	RtlClearBits [0x77DCB6CF+191]
+</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>EXCEPTION</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1429,23 +1455,23 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Desarrollo Personal y Profesional - 1681714832
-Precio: 0
+          <t>Nombre: Certificado - 1682639010
+Precio: 20000
 Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
 Gratuito: True</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NO : Certificado de Desarrollo Personal y Profesional - 1681714832 no se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación'] no coinciden</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1470,23 +1496,23 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Habilidad y Competencia - 1681714959
-Precio: 150000
+          <t>Nombre: Certificado - 1682639010
+Precio: 20000
 Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica']
-Gratuito: False</t>
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
+          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'] no coinciden</t>
+          <t>NO : Solicitante y Administrador no coinciden</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1511,28 +1537,28 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Habilidad y Competencia - 1681714959
-Precio: 150000
+          <t>Nombre: Certificado - 1682639010
+Precio: 20000
 Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica']
-Gratuito: False</t>
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NO : Solicitante y Administrador no coinciden</t>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado - 1682639010', 'pregrado', 'Habilitado']]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1552,23 +1578,23 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Habilidad y Competencia - 1681714959
-Precio: 150000
+          <t>Nombre: Certificado - 1682639010
+Precio: 20000
 Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica']
-Gratuito: False</t>
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>El certificado se guarda con los datos correctos y está habilitado</t>
+          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Habilidad y Competencia - 1681714959', 'posgrado', 'Habilitado']]</t>
+          <t>SI : ['Certificado - 1682639010', 'pregrado', '20000', '1234567890', 'Lorem ipsum dolor sit.', ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica'], True] y ['Certificado - 1682639010', 'pregrado', 20000, '1234567890', 'Lorem ipsum dolor sit.', ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica'], True] coinciden</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1593,23 +1619,23 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Habilidad y Competencia - 1681714959
-Precio: 150000
+          <t>Nombre: Certificado - 1682639010
+Precio: 20000
 Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica']
-Gratuito: False</t>
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
+          <t>El certificado aparece en el formulario de AGGR SOL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SI : ['Certificado de Habilidad y Competencia - 1681714959', 'posgrado', '150000', '1234567890', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica'], False] y ['Certificado de Habilidad y Competencia - 1681714959', 'posgrado', 150000, '1234567890', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica'], False] coinciden</t>
+          <t>SI : Certificado - 1682639010 se encontró en el dropdown: ['Certificado - 1682570149', 'Certificado - 1682638508', 'Certificado - 1682638641', 'Certificado - 1682638776', 'Certificado - 1682639010', 'Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Civil</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1634,23 +1660,23 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Habilidad y Competencia - 1681714959
-Precio: 150000
+          <t>Nombre: Certificado - 1682639010
+Precio: 20000
 Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: posgrado
-Programas: ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica']
-Gratuito: False</t>
+Desc: Lorem ipsum dolor sit.
+Nivel: pregrado
+Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de AGGR SOL</t>
+          <t>El certificado aparece en el formulario de NUEVO TICKET según el programa seleccionado</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SI : Certificado de Habilidad y Competencia - 1681714959 se encontró en el dropdown: ['Certificado con otra información posgrado', 'Certificado de Excelencia Académica', 'Certificado de Habilidad y Competencia - 1681714959', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Participación Universitaria', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Servicio Comunitario Universitario - 1681714464', 'Certificado de estudio egresado posgrado', 'Certificado de estudio posgrado', 'Certificado de estudio retirado o en reserva de cupo posgrado', 'Certificado de notas egresado posgrado', 'Certificado de notas posgrado', 'Certificado de notas retirado o en reserva de cupo posgrado', 'Certificado egresado posgrado', 'Duplicado de diploma y acta de grado posgrado', 'Plan de estudio extenso posgrado', 'Plan de estudio resumido posgrado'] para Maestría en Ingeniería Electrónica</t>
+          <t>SI : Certificado - 1682639010 no se encontró en el dropdown: ['Certificado - 1682570149', 'Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1661,7 +1687,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1675,23 +1701,23 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Habilidad y Competencia - 1681714959
-Precio: 150000
-Num Consig: 1234567890
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
+          <t>Nombre: Certificado - 1682639144
+Precio: 0
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
 Nivel: posgrado
-Programas: ['Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica']
+Programas: ['Maestría en Recursos Hidráulicos']
 Gratuito: False</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NO : Certificado de Habilidad y Competencia - 1681714959 no se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'] no coinciden</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1716,23 +1742,23 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Logro en Programa de Prácticas - 1681715084
+          <t>Nombre: Certificado - 1682639144
 Precio: 0
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: posgrado
-Programas: ['Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada']
-Gratuito: True</t>
+Programas: ['Maestría en Recursos Hidráulicos']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
+          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'] no coinciden</t>
+          <t>NO : Solicitante y Administrador no coinciden</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1757,28 +1783,28 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Logro en Programa de Prácticas - 1681715084
+          <t>Nombre: Certificado - 1682639144
 Precio: 0
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: posgrado
-Programas: ['Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada']
-Gratuito: True</t>
+Programas: ['Maestría en Recursos Hidráulicos']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NO : Solicitante y Administrador no coinciden</t>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado - 1682639144', 'posgrado', 'Habilitado']]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1798,23 +1824,23 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Logro en Programa de Prácticas - 1681715084
+          <t>Nombre: Certificado - 1682639144
 Precio: 0
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: posgrado
-Programas: ['Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada']
-Gratuito: True</t>
+Programas: ['Maestría en Recursos Hidráulicos']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>El certificado se guarda con los datos correctos y está habilitado</t>
+          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Logro en Programa de Prácticas - 1681715084', 'posgrado', 'Habilitado']]</t>
+          <t>SI : ['Certificado - 1682639144', 'posgrado', '0', '2023000', 'Lorem ipsum dolor sit.', ['Maestría en Recursos Hidráulicos'], False] y ['Certificado - 1682639144', 'posgrado', 0, '2023000', 'Lorem ipsum dolor sit.', ['Maestría en Recursos Hidráulicos'], False] coinciden</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1839,23 +1865,23 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Logro en Programa de Prácticas - 1681715084
+          <t>Nombre: Certificado - 1682639144
 Precio: 0
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: posgrado
-Programas: ['Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada']
-Gratuito: True</t>
+Programas: ['Maestría en Recursos Hidráulicos']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
+          <t>El certificado aparece en el formulario de AGGR SOL</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>SI : ['Certificado de Logro en Programa de Prácticas - 1681715084', 'posgrado', '0', '2023000', 'Lorem ipsum dolor sit.', ['Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada'], True] y ['Certificado de Logro en Programa de Prácticas - 1681715084', 'posgrado', 0, '2023000', 'Lorem ipsum dolor sit.', ['Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada'], True] coinciden</t>
+          <t>SI : Certificado - 1682639144 se encontró en el dropdown: ['Certificado - 1682569806', 'Certificado - 1682569932', 'Certificado - 1682570058', 'Certificado - 1682637368', 'Certificado - 1682638008', 'Certificado - 1682638343', 'Certificado - 1682638911', 'Certificado - 1682639144', 'Certificado con otra información posgrado', 'Certificado de estudio egresado posgrado', 'Certificado de estudio posgrado', 'Certificado de estudio retirado o en reserva de cupo posgrado', 'Certificado de notas egresado posgrado', 'Certificado de notas posgrado', 'Certificado de notas retirado o en reserva de cupo posgrado', 'Certificado egresado posgrado', 'Duplicado de diploma y acta de grado posgrado', 'Plan de estudio extenso posgrado', 'Plan de estudio resumido posgrado'] para Maestría en Recursos Hidráulicos</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1880,54 +1906,28 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Logro en Programa de Prácticas - 1681715084
+          <t>Nombre: Certificado - 1682639144
 Precio: 0
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: posgrado
-Programas: ['Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada']
-Gratuito: True</t>
+Programas: ['Maestría en Recursos Hidráulicos']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EXCEPTION</t>
+          <t>El certificado aparece en el formulario de NUEVO TICKET según el programa seleccionado</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//div[contains(@class, 'menuable__content__active')]//div[contains(text(),'Doctorado en Ingeniería Sistemas y Computación')]"}
-  (Session info: chrome=112.0.5615.86)
-Stacktrace:
-Backtrace:
-	GetHandleVerifier [0x0090DCE3+50899]
-	(No symbol) [0x0089E111]
-	(No symbol) [0x007A5588]
-	(No symbol) [0x007D08F9]
-	(No symbol) [0x007D0AFB]
-	(No symbol) [0x007FF902]
-	(No symbol) [0x007EB944]
-	(No symbol) [0x007FE01C]
-	(No symbol) [0x007EB6F6]
-	(No symbol) [0x007C7708]
-	(No symbol) [0x007C886D]
-	GetHandleVerifier [0x00B73EAE+2566302]
-	GetHandleVerifier [0x00BA92B1+2784417]
-	GetHandleVerifier [0x00BA327C+2759788]
-	GetHandleVerifier [0x009A5740+672048]
-	(No symbol) [0x008A8872]
-	(No symbol) [0x008A41C8]
-	(No symbol) [0x008A42AB]
-	(No symbol) [0x008971B7]
-	BaseThreadInitThunk [0x76947D49+25]
-	RtlInitializeExceptionChain [0x77A2B74B+107]
-	RtlClearBits [0x77A2B6CF+191]
-</t>
+          <t>SI : Certificado - 1682639144 no se encontró en el dropdown: ['Certificado - 1682570149', 'Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -1947,12 +1947,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación en Proyecto de Investigación - 1681715170
+          <t>Nombre: Certificado - 1682639280
 Precio: 20000
 Num Consig: 1234567890
 Desc: Lorem ipsum dolor sit.
 Nivel: posgrado
-Programas: ['Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras']
+Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial']
 Gratuito: False</t>
         </is>
       </c>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación en Proyecto de Investigación - 1681715170
+          <t>Nombre: Certificado - 1682639280
 Precio: 20000
 Num Consig: 1234567890
 Desc: Lorem ipsum dolor sit.
 Nivel: posgrado
-Programas: ['Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras']
+Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial']
 Gratuito: False</t>
         </is>
       </c>
@@ -2029,12 +2029,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación en Proyecto de Investigación - 1681715170
+          <t>Nombre: Certificado - 1682639280
 Precio: 20000
 Num Consig: 1234567890
 Desc: Lorem ipsum dolor sit.
 Nivel: posgrado
-Programas: ['Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras']
+Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial']
 Gratuito: False</t>
         </is>
       </c>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Participación en Proyecto de Investigación - 1681715170', 'posgrado', 'Habilitado']]</t>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado - 1682639280', 'posgrado', 'Habilitado']]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2070,12 +2070,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación en Proyecto de Investigación - 1681715170
+          <t>Nombre: Certificado - 1682639280
 Precio: 20000
 Num Consig: 1234567890
 Desc: Lorem ipsum dolor sit.
 Nivel: posgrado
-Programas: ['Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras']
+Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial']
 Gratuito: False</t>
         </is>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SI : ['Certificado de Participación en Proyecto de Investigación - 1681715170', 'posgrado', '20000', '1234567890', 'Lorem ipsum dolor sit.', ['Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras'], False] y ['Certificado de Participación en Proyecto de Investigación - 1681715170', 'posgrado', 20000, '1234567890', 'Lorem ipsum dolor sit.', ['Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras'], False] coinciden</t>
+          <t>SI : ['Certificado - 1682639280', 'posgrado', '20000', '1234567890', 'Lorem ipsum dolor sit.', ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial'], False] y ['Certificado - 1682639280', 'posgrado', 20000, '1234567890', 'Lorem ipsum dolor sit.', ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial'], False] coinciden</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2111,60 +2111,34 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación en Proyecto de Investigación - 1681715170
+          <t>Nombre: Certificado - 1682639280
 Precio: 20000
 Num Consig: 1234567890
 Desc: Lorem ipsum dolor sit.
 Nivel: posgrado
-Programas: ['Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras']
+Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial']
 Gratuito: False</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EXCEPTION</t>
+          <t>El certificado aparece en el formulario de AGGR SOL</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//div[contains(@class, 'menuable__content__active')]//div[contains(text(),'Doctorado en Ingeniería Eléctrica')]"}
-  (Session info: chrome=112.0.5615.86)
-Stacktrace:
-Backtrace:
-	GetHandleVerifier [0x0090DCE3+50899]
-	(No symbol) [0x0089E111]
-	(No symbol) [0x007A5588]
-	(No symbol) [0x007D08F9]
-	(No symbol) [0x007D0AFB]
-	(No symbol) [0x007FF902]
-	(No symbol) [0x007EB944]
-	(No symbol) [0x007FE01C]
-	(No symbol) [0x007EB6F6]
-	(No symbol) [0x007C7708]
-	(No symbol) [0x007C886D]
-	GetHandleVerifier [0x00B73EAE+2566302]
-	GetHandleVerifier [0x00BA92B1+2784417]
-	GetHandleVerifier [0x00BA327C+2759788]
-	GetHandleVerifier [0x009A5740+672048]
-	(No symbol) [0x008A8872]
-	(No symbol) [0x008A41C8]
-	(No symbol) [0x008A42AB]
-	(No symbol) [0x008971B7]
-	BaseThreadInitThunk [0x76947D49+25]
-	RtlInitializeExceptionChain [0x77A2B74B+107]
-	RtlClearBits [0x77A2B6CF+191]
-</t>
+          <t>SI : Certificado - 1682639280 se encontró en el dropdown: ['Certificado - 1682569806', 'Certificado - 1682569932', 'Certificado - 1682570058', 'Certificado - 1682637368', 'Certificado - 1682638008', 'Certificado - 1682638343', 'Certificado - 1682638911', 'Certificado - 1682639144', 'Certificado - 1682639280', 'Certificado con otra información posgrado', 'Certificado de estudio egresado posgrado', 'Certificado de estudio posgrado', 'Certificado de estudio retirado o en reserva de cupo posgrado', 'Certificado de notas egresado posgrado', 'Certificado de notas posgrado', 'Certificado de notas retirado o en reserva de cupo posgrado', 'Certificado egresado posgrado', 'Duplicado de diploma y acta de grado posgrado', 'Plan de estudio extenso posgrado', 'Plan de estudio resumido posgrado'] para Especialización en Estructuras</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2178,28 +2152,28 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación en Concurso de Innovación - 1681715258
-Precio: 10000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica']
-Gratuito: True</t>
+          <t>Nombre: Certificado - 1682639280
+Precio: 20000
+Num Consig: 1234567890
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
+          <t>El certificado aparece en el formulario de NUEVO TICKET según el programa seleccionado</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación'] no coinciden</t>
+          <t>SI : Certificado - 1682639280 no se encontró en el dropdown: ['Certificado - 1682570149', 'Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -2219,23 +2193,23 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación en Concurso de Innovación - 1681715258
+          <t>Nombre: Certificado - 1682639416
 Precio: 10000
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica']
-Gratuito: True</t>
+Nivel: posgrado
+Programas: ['Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
+          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NO : Solicitante y Administrador no coinciden</t>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'] no coinciden</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2260,28 +2234,28 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación en Concurso de Innovación - 1681715258
+          <t>Nombre: Certificado - 1682639416
 Precio: 10000
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica']
-Gratuito: True</t>
+Nivel: posgrado
+Programas: ['Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>El certificado se guarda con los datos correctos y está habilitado</t>
+          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Participación en Concurso de Innovación - 1681715258', 'pregrado', 'Habilitado']]</t>
+          <t>NO : Solicitante y Administrador no coinciden</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -2301,23 +2275,23 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación en Concurso de Innovación - 1681715258
+          <t>Nombre: Certificado - 1682639416
 Precio: 10000
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica']
-Gratuito: True</t>
+Nivel: posgrado
+Programas: ['Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SI : ['Certificado de Participación en Concurso de Innovación - 1681715258', 'pregrado', '10000', '2023000', 'Lorem ipsum dolor sit.', ['Ingeniería Industrial', 'Ingeniería Mecatrónica'], True] y ['Certificado de Participación en Concurso de Innovación - 1681715258', 'pregrado', 10000, '2023000', 'Lorem ipsum dolor sit.', ['Ingeniería Industrial', 'Ingeniería Mecatrónica'], True] coinciden</t>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado - 1682639416', 'posgrado', 'Habilitado']]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2342,23 +2316,23 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación en Concurso de Innovación - 1681715258
+          <t>Nombre: Certificado - 1682639416
 Precio: 10000
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica']
-Gratuito: True</t>
+Nivel: posgrado
+Programas: ['Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de AGGR SOL</t>
+          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SI : Certificado de Participación en Concurso de Innovación - 1681715258 se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Desarrollo Personal y Profesional - 1681712650', 'Certificado de Desarrollo Personal y Profesional - 1681714832', 'Certificado de Desempeño Profesional - 1681712565', 'Certificado de Desempeño Profesional - 1681714708', 'Certificado de Excelencia Académica', 'Certificado de Habilidad y Competencia - 1681712739', 'Certificado de Investigación Estudiantil', 'Certificado de Investigación Estudiantil - 1681712477', 'Certificado de Investigación Estudiantil - 1681713580', 'Certificado de Investigación Estudiantil - 1681714584', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681713173', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Participación en Concurso de Innovación - 1681715258', 'Certificado de Participación en Proyecto de Investigación - 1681712912', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de Servicio Comunitario Universitario - 1681712394', 'Certificado de Servicio Comunitario Universitario - 1681713490', 'Certificado de Servicio Comunitario Universitario - 1681713967', 'Certificado de Servicio Comunitario Universitario - 1681714157', 'Certificado de Servicio Comunitario Universitario - 1681714288', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a37f1', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Industrial</t>
+          <t>SI : ['Certificado - 1682639416', 'posgrado', '10000', '2023000', 'Lorem ipsum dolor sit.', ['Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones'], False] y ['Certificado - 1682639416', 'posgrado', 10000, '2023000', 'Lorem ipsum dolor sit.', ['Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones'], False] coinciden</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2383,34 +2357,34 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Participación en Concurso de Innovación - 1681715258
+          <t>Nombre: Certificado - 1682639416
 Precio: 10000
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Industrial', 'Ingeniería Mecatrónica']
-Gratuito: True</t>
+Nivel: posgrado
+Programas: ['Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones']
+Gratuito: False</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+          <t>El certificado aparece en el formulario de AGGR SOL</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NO : Certificado de Participación en Concurso de Innovación - 1681715258 no se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
+          <t>SI : Certificado - 1682639416 se encontró en el dropdown: ['Certificado - 1682569806', 'Certificado - 1682569932', 'Certificado - 1682570058', 'Certificado - 1682637368', 'Certificado - 1682638008', 'Certificado - 1682638343', 'Certificado - 1682638911', 'Certificado - 1682639144', 'Certificado - 1682639280', 'Certificado - 1682639416', 'Certificado con otra información posgrado', 'Certificado de estudio egresado posgrado', 'Certificado de estudio posgrado', 'Certificado de estudio retirado o en reserva de cupo posgrado', 'Certificado de notas egresado posgrado', 'Certificado de notas posgrado', 'Certificado de notas retirado o en reserva de cupo posgrado', 'Certificado egresado posgrado', 'Duplicado de diploma y acta de grado posgrado', 'Plan de estudio extenso posgrado', 'Plan de estudio resumido posgrado'] para Maestría en Ingeniería Química</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2424,28 +2398,28 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380
-Precio: 20000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+          <t>Nombre: Certificado - 1682639416
+Precio: 10000
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones']
 Gratuito: False</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
+          <t>El certificado aparece en el formulario de NUEVO TICKET según el programa seleccionado</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación'] no coinciden</t>
+          <t>SI : Certificado - 1682639416 no se encontró en el dropdown: ['Certificado - 1682570149', 'Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -2465,23 +2439,23 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380
-Precio: 20000
+          <t>Nombre: Certificado - 1682639553
+Precio: 50000
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
-Gratuito: False</t>
+Programas: ['Ingeniería Mecánica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
+          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NO : Solicitante y Administrador no coinciden</t>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación'] no coinciden</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2506,28 +2480,28 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380
-Precio: 20000
+          <t>Nombre: Certificado - 1682639553
+Precio: 50000
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
-Gratuito: False</t>
+Programas: ['Ingeniería Mecánica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>El certificado se guarda con los datos correctos y está habilitado</t>
+          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380', 'pregrado', 'Habilitado']]</t>
+          <t>NO : Solicitante y Administrador no coinciden</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -2547,28 +2521,28 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380
-Precio: 20000
+          <t>Nombre: Certificado - 1682639553
+Precio: 50000
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
-Gratuito: False</t>
+Programas: ['Ingeniería Mecánica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SI : ['Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380', 'pregrado', '20000', '2023000', 'Lorem ipsum dolor sit.', ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial'], False] y ['Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380', 'pregrado', 20000, '2023000', 'Lorem ipsum dolor sit.', ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial'], False] coinciden</t>
+          <t>NO : no se encontraron resultados en Certificados para ['Certificado - 1682639553', 'pregrado', 'Habilitado']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -2588,34 +2562,34 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380
-Precio: 20000
+          <t>Nombre: Certificado - 1682639553
+Precio: 50000
 Num Consig: 2023000
 Desc: Lorem ipsum dolor sit.
 Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
-Gratuito: False</t>
+Programas: ['Ingeniería Mecánica']
+Gratuito: True</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de AGGR SOL</t>
+          <t>EXCEPTION</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SI : Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380 se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Desarrollo Personal y Profesional - 1681712650', 'Certificado de Desarrollo Personal y Profesional - 1681714832', 'Certificado de Desempeño Profesional - 1681712565', 'Certificado de Desempeño Profesional - 1681714708', 'Certificado de Excelencia Académica', 'Certificado de Habilidad y Competencia - 1681712739', 'Certificado de Investigación Estudiantil', 'Certificado de Investigación Estudiantil - 1681712477', 'Certificado de Investigación Estudiantil - 1681713580', 'Certificado de Investigación Estudiantil - 1681714584', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681713173', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Participación en Concurso de Innovación - 1681715258', 'Certificado de Participación en Proyecto de Investigación - 1681712912', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380', 'Certificado de Servicio Comunitario Universitario', 'Certificado de Servicio Comunitario Universitario - 1681712394', 'Certificado de Servicio Comunitario Universitario - 1681713490', 'Certificado de Servicio Comunitario Universitario - 1681713967', 'Certificado de Servicio Comunitario Universitario - 1681714157', 'Certificado de Servicio Comunitario Universitario - 1681714288', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a37f1', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Civil</t>
+          <t>list index out of range</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>EXCEPTION</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2629,23 +2603,23 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380
-Precio: 20000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit.
-Nivel: pregrado
-Programas: ['Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+          <t>Nombre: Certificado - 1682639627
+Precio: 0
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica']
 Gratuito: False</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
+          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NO : Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380 no se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
+          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'] no coinciden</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2670,23 +2644,23 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507
-Precio: 50000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: pregrado
-Programas: ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+          <t>Nombre: Certificado - 1682639627
+Precio: 0
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica']
 Gratuito: False</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Los programas se filtran de acuerdo al grupo seleccionado</t>
+          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>NO : ['Doctorado en Estudios Ambientales', 'Doctorado en Industria y Organizaciones', 'Doctorado en Ingeniería - Ingeniería Civil', 'Doctorado en Ingeniería Ciencia y Tecnología de Materiales', 'Doctorado en Ingeniería Eléctrica', 'Doctorado en Ingeniería Mecánica y Mecatrónica', 'Doctorado en Ingeniería Química', 'Doctorado en Ingeniería Sistemas y Computación', 'Especialización en Estructuras', 'Especialización en Gobierno Electrónico', 'Especialización en Iluminación Pública y Privada', 'Especialización en Tránsito, Diseño y Seguridad Vial', 'Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación', 'Maestría en Automatización Industrial', 'Maestría en Bioinformática', 'Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica', 'Maestría en Ingeniería Eléctrica', 'Maestría en Ingeniería Industrial', 'Maestría en Ingeniería Mecánica', 'Maestría en Ingeniería Química', 'Maestría en Materiales y Procesos', 'Maestría en Recursos Hidráulicos', 'Maestría en Sistemas y Computación', 'Maestría en Telecomunicaciones', 'Maestría en Transporte'], ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial', 'Ingeniería Mecatrónica', 'Ingeniería Mecánica', 'Ingeniería Química', 'Ingeniería de Sistemas y Computación'] no coinciden</t>
+          <t>NO : Solicitante y Administrador no coinciden</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2711,28 +2685,28 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507
-Precio: 50000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: pregrado
-Programas: ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+          <t>Nombre: Certificado - 1682639627
+Precio: 0
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica']
 Gratuito: False</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>El rol seleccionado se mantiene tras enviar el formulario</t>
+          <t>El certificado se guarda con los datos correctos y está habilitado</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NO : Solicitante y Administrador no coinciden</t>
+          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado - 1682639627', 'posgrado', 'Habilitado']]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -2752,23 +2726,23 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507
-Precio: 50000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: pregrado
-Programas: ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+          <t>Nombre: Certificado - 1682639627
+Precio: 0
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica']
 Gratuito: False</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>El certificado se guarda con los datos correctos y está habilitado</t>
+          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SI : se encontró un resultado en Certificados que coincide con [['Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507', 'pregrado', 'Habilitado']]</t>
+          <t>SI : ['Certificado - 1682639627', 'posgrado', '0', '2023000', 'Lorem ipsum dolor sit.', ['Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica'], False] y ['Certificado - 1682639627', 'posgrado', 0, '2023000', 'Lorem ipsum dolor sit.', ['Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica'], False] coinciden</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2793,23 +2767,23 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507
-Precio: 50000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: pregrado
-Programas: ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+          <t>Nombre: Certificado - 1682639627
+Precio: 0
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica']
 Gratuito: False</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Los datos del certificado aparecen correctamente en el modo edición</t>
+          <t>El certificado aparece en el formulario de AGGR SOL</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SI : ['Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507', 'pregrado', '50000', '2023000', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial'], False] y ['Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507', 'pregrado', 50000, '2023000', 'Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.', ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial'], False] coinciden</t>
+          <t>SI : Certificado - 1682639627 se encontró en el dropdown: ['Certificado - 1682569806', 'Certificado - 1682569932', 'Certificado - 1682570058', 'Certificado - 1682637368', 'Certificado - 1682638008', 'Certificado - 1682638343', 'Certificado - 1682638911', 'Certificado - 1682639144', 'Certificado - 1682639280', 'Certificado - 1682639416', 'Certificado - 1682639627', 'Certificado con otra información posgrado', 'Certificado de estudio egresado posgrado', 'Certificado de estudio posgrado', 'Certificado de estudio retirado o en reserva de cupo posgrado', 'Certificado de notas egresado posgrado', 'Certificado de notas posgrado', 'Certificado de notas retirado o en reserva de cupo posgrado', 'Certificado egresado posgrado', 'Duplicado de diploma y acta de grado posgrado', 'Plan de estudio extenso posgrado', 'Plan de estudio resumido posgrado'] para Maestría en Estructuras</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2834,67 +2808,26 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Nombre: Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507
-Precio: 50000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: pregrado
-Programas: ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
+          <t>Nombre: Certificado - 1682639627
+Precio: 0
+Num Consig: 2023000
+Desc: Lorem ipsum dolor sit.
+Nivel: posgrado
+Programas: ['Maestría en Estructuras', 'Maestría en Geotecnia', 'Maestría en Ingeniería Agrícola', 'Maestría en Ingeniería Ambiental', 'Maestría en Ingeniería Electrónica']
 Gratuito: False</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>El certificado aparece en el formulario de AGGR SOL</t>
+          <t>El certificado aparece en el formulario de NUEVO TICKET según el programa seleccionado</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SI : Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507 se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Desarrollo Personal y Profesional - 1681712650', 'Certificado de Desarrollo Personal y Profesional - 1681714832', 'Certificado de Desempeño Profesional - 1681712565', 'Certificado de Desempeño Profesional - 1681714708', 'Certificado de Excelencia Académica', 'Certificado de Habilidad y Competencia - 1681712739', 'Certificado de Investigación Estudiantil', 'Certificado de Investigación Estudiantil - 1681712477', 'Certificado de Investigación Estudiantil - 1681713580', 'Certificado de Investigación Estudiantil - 1681714584', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681713173', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Participación en Concurso de Innovación - 1681715258', 'Certificado de Participación en Proyecto de Investigación - 1681712912', 'Certificado de Reconocimiento Estudiantil', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681715380', 'Certificado de Servicio Comunitario Universitario', 'Certificado de Servicio Comunitario Universitario - 1681712394', 'Certificado de Servicio Comunitario Universitario - 1681713490', 'Certificado de Servicio Comunitario Universitario - 1681713967', 'Certificado de Servicio Comunitario Universitario - 1681714157', 'Certificado de Servicio Comunitario Universitario - 1681714288', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a37f1', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
+          <t>SI : Certificado - 1682639627 no se encontró en el dropdown: ['Certificado - 1682570149', 'Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
-        <is>
-          <t>PASSED</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>10</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Agregar Certificado</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Administrador</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Nombre: Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507
-Precio: 50000
-Num Consig: 2023000
-Desc: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Donec a diam lectus. Sed sit amet ipsum mauris.
-Nivel: pregrado
-Programas: ['Ingeniería Agrícola', 'Ingeniería Civil', 'Ingeniería Electrónica', 'Ingeniería Eléctrica', 'Ingeniería Industrial']
-Gratuito: False</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>El certificado aparece en el formulario de NUEVO TICKET</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>SI : Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507 se encontró en el dropdown: ['Certificado con otra información egresado pregrado', 'Certificado con otra información estudiante pregrado', 'Certificado de Excelencia Académica', 'Certificado de Liderazgo Estudiantil', 'Certificado de Logro Académico', 'Certificado de Logro en Estudio de Idiomas o Intercambio Internacional - 1681715507', 'Certificado de Logro en Programa de Prácticas - 1681712826', 'Certificado de Participación Universitaria', 'Certificado de Participación en Concurso de Innovación - 1681712999', 'Certificado de Reconocimiento por Participación en Evento Estudiantil - 1681713086', 'Certificado de Servicio Comunitario Universitario', 'Certificado de estudio retirado o en reserva de cupo pregrado', 'Certificado de notas egresado pregrado', 'Certificado de notas retirado o en reserva de cupo pregrado', 'Certificado egresado pregrado', 'Duplicado de diploma y acta de grado pregrado', 'Mi Certificado', 'Mi Certificado 642cddb0', 'Mi Certificado 642cde6d', 'Mi Certificado 642cdf22', 'Mi Certificado 642e6a7e', 'Mi Certificado 643a35ef', 'Mi Certificado 643a3681', 'Mi Certificado 643a38cf', 'Mi Certificado 643a3a0a', 'Mi Certificado 643a3bef', 'Mi Certificado 643a3d09', 'Mi Certificado 643a3ee5', 'Mi Certificado 643a3fc3', 'Mi Certificado 643a4209', 'Mi Certificado 643a43ec', 'Mi Certificado 643a447b', 'Mi Certificado 643a4520', 'Mi Certificado 643a47a9', 'Mi Certificado 643a48d7', 'Mi Certificado 643a49bc', 'Mi Certificado 643a4a86', 'Mi Certificado 643a4b18', 'Mi Certificado 643a4bd1', 'Mi Certificado 643a4c6e', 'Mi Certificado 643ac779', 'Mi Certificado 643acad5', 'Mi Certificado 643acc80', 'Mi Certificado 643ace7e', 'Mi Certificado 643ad1ea', 'Mi Certificado 643ad2ab', 'Mi Certificado 643ad470', 'Mi Certificado 643ad65e', 'Mi Certificado 643ad799', 'Mi Certificado 643ad8b2', 'Mi Certificado 643adae9', 'Plan de estudio extenso pregrado', 'Plan de estudio resumido pregrado'] para Ingeniería Agrícola</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
